--- a/sort/test_with_complex.xlsx
+++ b/sort/test_with_complex.xlsx
@@ -1,24 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OC\sort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\main\codes\OC\sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F6ECC-5131-4EB0-B484-F810F070544A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33CB10F-4244-468A-9307-F35570D3DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$M$2:$M$37</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$P$2:$P$37</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$O$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$O$3:$O$37</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -112,826 +125,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>test_1</a:t>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ускорение</a:t>
             </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30945822397200351"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$C$2:$C$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2651018976053332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1876864520111101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0190267437939351</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.1393935345979163</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8154997319326496</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.7508623993867385</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6613165257679237</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3169914526254942</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.3169914526254942</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.4739933967499455</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.429888594340615</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.9260465234137443</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9090094863255627</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.741547935281333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.4928480449068386</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.1712446527621427</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1941101587906964</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.9529200436446108</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.5661463293445408</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.9818897410483167</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.8338164958070031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.5835726881245287</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5337699717084501</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.6639071210890317</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.8726441768408559</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.4078527664567364</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.6143501351995511</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.3795354194663081</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.2048020036216029</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.3596489558148832</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.3402158398344572</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.4435393568533441</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.042528087850954</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.9811459478812368</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.0597433588024741</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A19-4E90-BBAA-9EE2353855FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1290587439"/>
-        <c:axId val="1290586191"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1290587439"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1290586191"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1290586191"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1290587439"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>test_2</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.29279155730533679"/>
-          <c:y val="5.5555555555555552E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$G$2:$G$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3001834405539099</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1944938826568485</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9974674200773772</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.1439474395931315</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6427462863055204</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6466267742627423</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.4683781918564525</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5951679089466104</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5884887882550576</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.9375097934751953</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.9733218643070827</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.1986472577562122</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.0926532766112693</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5379754677239497</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.6464899755047075</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.5711199790806871</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.5037005225907563</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.8076675545703202</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.1536013333065598</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.099852954238175</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.7140252648314238</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.7874853572823115</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.771669593300802</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.7468976554233091</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.7001319527720828</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.5970895861755343</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.4074237297228938</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.5086355268569878</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.4210716983458971</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.0993236288781061</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.3513757312841781</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.2553591751304118</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.2720236674406324</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.9038455127602898</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.9895929665429393</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3692-48A4-A05D-4159C3484312}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1292310863"/>
-        <c:axId val="1292298383"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1292310863"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1292298383"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1292298383"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1292310863"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>average</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -974,7 +171,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5044062106588335E-2"/>
+          <c:y val="0.17559176665350781"/>
+          <c:w val="0.88778630216723298"/>
+          <c:h val="0.71458281378198707"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -983,7 +190,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$M$2</c:f>
+              <c:f>Лист1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1006,114 +213,69 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$M$3:$M$37</c:f>
+              <c:f>Лист1!$O$3:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.2941861974438482</c:v>
+                  <c:v>1.886001909546807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2100563065751415</c:v>
+                  <c:v>2.7062148771323113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0085320001027425</c:v>
+                  <c:v>3.4495562167798375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2743766790676103</c:v>
+                  <c:v>2.8481039237369989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4421155122356915</c:v>
+                  <c:v>3.4146177729294287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3940799748608192</c:v>
+                  <c:v>5.007241624141864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2848349218587929</c:v>
+                  <c:v>3.617323898588344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1557221241853268</c:v>
+                  <c:v>3.9667004601107387</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8697804745276745</c:v>
+                  <c:v>4.6951043625748534</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7945700661129536</c:v>
+                  <c:v>4.7136666446575077</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6958009844389017</c:v>
+                  <c:v>4.3551551307285026</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0790331373336874</c:v>
+                  <c:v>4.3464839431534763</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9352371120185734</c:v>
+                  <c:v>4.3378657129303413</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.618507724555736</c:v>
+                  <c:v>4.6814277595366889</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.6024485160173669</c:v>
+                  <c:v>4.4230290553400371</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4320989567956199</c:v>
+                  <c:v>5.0334038808122807</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.352189694069537</c:v>
+                  <c:v>4.7869562148554214</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0302829881938993</c:v>
+                  <c:v>4.803756875031727</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9699852286310784</c:v>
+                  <c:v>4.6616916904761361</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1318026230143841</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.8821679477925515</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.8110394477379299</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.6650371307228937</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.6563082208304887</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.6999580389040738</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.5780890032949255</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.5354616381116113</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.4928774740551618</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.3539317907641215</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.3405689300673869</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.3676599632470086</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.3149722151271828</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.1413726359872474</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.9471896613243433</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.0701372750516147</c:v>
+                  <c:v>4.4945905197408758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,20 +305,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1311,6 +459,1041 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>время</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29556933508311461"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$N$2:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>40.692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.575800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.7963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.2874</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.917</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1266300000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.2492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.2584</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6669</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6327700000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3434100000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.36205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3806499999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.6922200000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2000299999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0843900000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5006000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.4708699999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.7290200000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0535499999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EA19-437C-8060-38D741CE9F8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="570301328"/>
+        <c:axId val="570297168"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$M$2:$M$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="36"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-EA19-437C-8060-38D741CE9F8A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$N$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-EA19-437C-8060-38D741CE9F8A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="570301328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570297168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="570297168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570301328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>эффективность</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>потоков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.265013779527559"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$P$2:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94300095477340351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90207162571077049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86238905419495937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56962078474739974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56910296215490475</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71532023202026629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.452165487323543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44074449556785988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46951043625748534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4285151495143189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3629295942273752</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33434491870411354</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30984755092359578</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31209518396911257</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27643931595875232</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2960825812242518</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26594201193641231</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25282930921219615</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23308458452380681</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21402811998766075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1940-4A5B-B6F0-17BFF7B1C213}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="352407344"/>
+        <c:axId val="352393200"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$M$2:$M$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="36"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-1940-4A5B-B6F0-17BFF7B1C213}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="352407344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352393200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="352393200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352407344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1346,19 +1529,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>test_3</a:t>
+              <a:t>alpha</a:t>
             </a:r>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.3011248906386701"/>
-          <c:y val="5.0925925925925923E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1407,121 +1583,160 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$M$2:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$K$2:$K$37</c:f>
+              <c:f>Лист1!$Q$2:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3172732541723016</c:v>
+                  <c:v>6.0444313378551051E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2479885850574655</c:v>
+                  <c:v>5.4279710999705078E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0091018364369138</c:v>
+                  <c:v>5.3189816180084559E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5397890630117841</c:v>
+                  <c:v>0.18888847930797209</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8681005184689039</c:v>
+                  <c:v>0.15143025656148629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.784750750932977</c:v>
+                  <c:v>6.6329212949310268E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.724810047952003</c:v>
+                  <c:v>0.173082810239991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5550070109838749</c:v>
+                  <c:v>0.15861102919492776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7038611827024717</c:v>
+                  <c:v>0.12554201207990653</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9722070081137195</c:v>
+                  <c:v>0.13336397817752879</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6841924946690057</c:v>
+                  <c:v>0.15957775930940191</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1124056308311081</c:v>
+                  <c:v>0.1659102731085553</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8040485731188896</c:v>
+                  <c:v>0.17133796852906258</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5759997706619271</c:v>
+                  <c:v>0.15743933521506512</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.668007527640555</c:v>
+                  <c:v>0.17449536354402176</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5539322385440291</c:v>
+                  <c:v>0.14858975658606116</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3587584008271585</c:v>
+                  <c:v>0.16236577792426321</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3302613663667673</c:v>
+                  <c:v>0.16417986882488503</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.190208023242135</c:v>
+                  <c:v>0.17317305354214199</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3136651737566614</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.0986620827392279</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.0620602978069509</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.6896718271594291</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.5581198859791239</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.5270979870992836</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.7293246572525063</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.5846110494123891</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.5904614758421904</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.4359216703248636</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.5627342055091713</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.4113883186223908</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.2460181133977928</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.1095661526701552</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.9565775233315035</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.1610754998094315</c:v>
+                  <c:v>0.18361416248894127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,7 +1744,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D918-4398-AFBC-0EAA044EF6D0}"/>
+              <c16:uniqueId val="{00000000-0C07-4042-A007-9CDCE28DD620}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1541,11 +1756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1303559631"/>
-        <c:axId val="1303560047"/>
+        <c:axId val="352636512"/>
+        <c:axId val="352610720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1303559631"/>
+        <c:axId val="352636512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,6 +1780,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1601,12 +1817,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1303560047"/>
+        <c:crossAx val="352610720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1303560047"/>
+        <c:axId val="352610720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1879,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1303559631"/>
+        <c:crossAx val="352636512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2396,7 +2612,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2423,8 +2639,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2504,6 +2720,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2514,6 +2735,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2525,7 +2751,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2545,6 +2771,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2557,10 +2786,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2600,23 +2829,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2721,8 +2949,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2854,20 +3082,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2881,17 +3108,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2912,7 +3128,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2939,8 +3155,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3020,6 +3236,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3030,6 +3251,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3041,7 +3267,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3061,6 +3287,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3073,10 +3302,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3116,23 +3345,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3237,8 +3465,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3370,20 +3598,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3397,17 +3624,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3947,23 +4163,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>40199</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>75111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>77755</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>124409</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="9" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2D7E41-71BB-4038-836B-4869CE9CBA27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAADB6A4-D422-490C-9125-2707E3E488A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3983,23 +4199,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>159848</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>466531</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>46653</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6">
+        <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74D68A9-3A11-4E5A-B336-56C594B09151}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305ABAF2-6DE0-4835-B5A5-14F966729D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4019,23 +4235,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>482298</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>295469</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>46653</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Диаграмма 8">
+        <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAADB6A4-D422-490C-9125-2707E3E488A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179968A8-2269-45EF-9016-11B5B36367AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4055,23 +4271,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Диаграмма 9">
+        <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7856AE-E47B-419A-A7BB-EA1F808D6FCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5D569A-FFB1-470D-BD45-659525CCEEE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4355,15 +4571,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M37"/>
+  <dimension ref="A2:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="N14" zoomScale="73" workbookViewId="0">
+      <selection activeCell="AP28" sqref="AP28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4394,11 +4610,23 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(K2,G2,C2)</f>
         <v>1</v>
       </c>
+      <c r="N2">
+        <v>40.692</v>
+      </c>
+      <c r="O2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4430,11 +4658,25 @@
         <v>2.3172732541723016</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M37" si="0">AVERAGE(K3,G3,C3)</f>
-        <v>2.2941861974438482</v>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>21.575800000000001</v>
+      </c>
+      <c r="O3">
+        <f>$N$2/N3</f>
+        <v>1.886001909546807</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P37" si="0">O3/M3</f>
+        <v>0.94300095477340351</v>
+      </c>
+      <c r="Q3">
+        <f>(M3/O3 - 1) / (M3 - 1)</f>
+        <v>6.0444313378551051E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4466,11 +4708,25 @@
         <v>3.2479885850574655</v>
       </c>
       <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>15.0365</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O49" si="4">$N$2/N4</f>
+        <v>2.7062148771323113</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="0"/>
-        <v>3.2100563065751415</v>
+        <v>0.90207162571077049</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q3:Q49" si="5">(M4/O4 - 1) / (M4 - 1)</f>
+        <v>5.4279710999705078E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4502,11 +4758,25 @@
         <v>4.0091018364369138</v>
       </c>
       <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>11.7963</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>3.4495562167798375</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="0"/>
-        <v>4.0085320001027425</v>
+        <v>0.86238905419495937</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>5.3189816180084559E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4538,11 +4808,25 @@
         <v>4.5397890630117841</v>
       </c>
       <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>14.2874</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>2.8481039237369989</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="0"/>
-        <v>4.2743766790676103</v>
+        <v>0.56962078474739974</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>0.18888847930797209</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4574,11 +4858,25 @@
         <v>3.8681005184689039</v>
       </c>
       <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>11.917</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>3.4146177729294287</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="0"/>
-        <v>4.4421155122356915</v>
+        <v>0.56910296215490475</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0.15143025656148629</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4610,11 +4908,25 @@
         <v>3.784750750932977</v>
       </c>
       <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>8.1266300000000005</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>5.007241624141864</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
-        <v>4.3940799748608192</v>
+        <v>0.71532023202026629</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>6.6329212949310268E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4646,11 +4958,25 @@
         <v>4.724810047952003</v>
       </c>
       <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>11.2492</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>3.617323898588344</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="0"/>
-        <v>4.2848349218587929</v>
+        <v>0.452165487323543</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0.173082810239991</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4682,11 +5008,25 @@
         <v>4.5550070109838749</v>
       </c>
       <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>10.2584</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>3.9667004601107387</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="0"/>
-        <v>4.1557221241853268</v>
+        <v>0.44074449556785988</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>0.15861102919492776</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4718,11 +5058,25 @@
         <v>3.7038611827024717</v>
       </c>
       <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>8.6669</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>4.6951043625748534</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="0"/>
-        <v>3.8697804745276745</v>
+        <v>0.46951043625748534</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>0.12554201207990653</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4754,11 +5108,25 @@
         <v>3.9722070081137195</v>
       </c>
       <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>8.6327700000000007</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>4.7136666446575077</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="0"/>
-        <v>3.7945700661129536</v>
+        <v>0.4285151495143189</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>0.13336397817752879</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4790,11 +5158,25 @@
         <v>3.6841924946690057</v>
       </c>
       <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>9.3434100000000004</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>4.3551551307285026</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="0"/>
-        <v>3.6958009844389017</v>
+        <v>0.3629295942273752</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>0.15957775930940191</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4826,11 +5208,25 @@
         <v>4.1124056308311081</v>
       </c>
       <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <v>9.36205</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>4.3464839431534763</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="0"/>
-        <v>4.0790331373336874</v>
+        <v>0.33434491870411354</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>0.1659102731085553</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4862,11 +5258,25 @@
         <v>3.8040485731188896</v>
       </c>
       <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>9.3806499999999993</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>4.3378657129303413</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="0"/>
-        <v>3.9352371120185734</v>
+        <v>0.30984755092359578</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>0.17133796852906258</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4898,11 +5308,25 @@
         <v>3.5759997706619271</v>
       </c>
       <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <v>8.6922200000000007</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>4.6814277595366889</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="0"/>
-        <v>3.618507724555736</v>
+        <v>0.31209518396911257</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>0.15743933521506512</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4934,11 +5358,25 @@
         <v>3.668007527640555</v>
       </c>
       <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>9.2000299999999999</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>4.4230290553400371</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="0"/>
-        <v>3.6024485160173669</v>
+        <v>0.27643931595875232</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>0.17449536354402176</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4970,11 +5408,25 @@
         <v>3.5539322385440291</v>
       </c>
       <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <v>8.0843900000000009</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>5.0334038808122807</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="0"/>
-        <v>3.4320989567956199</v>
+        <v>0.2960825812242518</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>0.14858975658606116</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5006,11 +5458,25 @@
         <v>3.3587584008271585</v>
       </c>
       <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <v>8.5006000000000004</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>4.7869562148554214</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="0"/>
-        <v>3.352189694069537</v>
+        <v>0.26594201193641231</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>0.16236577792426321</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5042,11 +5508,25 @@
         <v>3.3302613663667673</v>
       </c>
       <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>8.4708699999999997</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>4.803756875031727</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="0"/>
-        <v>3.0302829881938993</v>
+        <v>0.25282930921219615</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>0.16417986882488503</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5078,11 +5558,25 @@
         <v>3.190208023242135</v>
       </c>
       <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>8.7290200000000002</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>4.6616916904761361</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="0"/>
-        <v>2.9699852286310784</v>
+        <v>0.23308458452380681</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>0.17317305354214199</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5114,11 +5608,25 @@
         <v>3.3136651737566614</v>
       </c>
       <c r="M22">
+        <v>21</v>
+      </c>
+      <c r="N22">
+        <v>9.0535499999999995</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>4.4945905197408758</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="0"/>
-        <v>3.1318026230143841</v>
+        <v>0.21402811998766075</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>0.18361416248894127</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5149,12 +5657,8 @@
         <f t="shared" si="3"/>
         <v>3.0986620827392279</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
-        <v>2.8821679477925515</v>
-      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5185,12 +5689,8 @@
         <f t="shared" si="3"/>
         <v>3.0620602978069509</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
-        <v>2.8110394477379299</v>
-      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5221,12 +5721,8 @@
         <f t="shared" si="3"/>
         <v>2.6896718271594291</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
-        <v>2.6650371307228937</v>
-      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5257,12 +5753,8 @@
         <f t="shared" si="3"/>
         <v>2.5581198859791239</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
-        <v>2.6563082208304887</v>
-      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5293,12 +5785,8 @@
         <f t="shared" si="3"/>
         <v>2.5270979870992836</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
-        <v>2.6999580389040738</v>
-      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5329,12 +5817,8 @@
         <f t="shared" si="3"/>
         <v>2.7293246572525063</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="0"/>
-        <v>2.5780890032949255</v>
-      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5365,12 +5849,8 @@
         <f t="shared" si="3"/>
         <v>2.5846110494123891</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="0"/>
-        <v>2.5354616381116113</v>
-      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5401,12 +5881,8 @@
         <f t="shared" si="3"/>
         <v>2.5904614758421904</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="0"/>
-        <v>2.4928774740551618</v>
-      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5437,12 +5913,8 @@
         <f t="shared" si="3"/>
         <v>2.4359216703248636</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
-        <v>2.3539317907641215</v>
-      </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5473,12 +5945,8 @@
         <f t="shared" si="3"/>
         <v>2.5627342055091713</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
-        <v>2.3405689300673869</v>
-      </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5509,12 +5977,8 @@
         <f t="shared" si="3"/>
         <v>2.4113883186223908</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="0"/>
-        <v>2.3676599632470086</v>
-      </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5545,12 +6009,8 @@
         <f t="shared" si="3"/>
         <v>2.2460181133977928</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="0"/>
-        <v>2.3149722151271828</v>
-      </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5581,12 +6041,8 @@
         <f t="shared" si="3"/>
         <v>2.1095661526701552</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="0"/>
-        <v>2.1413726359872474</v>
-      </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5617,12 +6073,8 @@
         <f t="shared" si="3"/>
         <v>1.9565775233315035</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="0"/>
-        <v>1.9471896613243433</v>
-      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5652,10 +6104,6 @@
       <c r="K37">
         <f t="shared" si="3"/>
         <v>2.1610754998094315</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="0"/>
-        <v>2.0701372750516147</v>
       </c>
     </row>
   </sheetData>
